--- a/biology/Zoologie/Cyanea_(méduse)/Cyanea_(méduse).xlsx
+++ b/biology/Zoologie/Cyanea_(méduse)/Cyanea_(méduse).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cyanea_(m%C3%A9duse)</t>
+          <t>Cyanea_(méduse)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cyanea (les cyanées en français) est un genre de grandes méduses de la famille éponyme des Cyaneidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cyanea_(m%C3%A9duse)</t>
+          <t>Cyanea_(méduse)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanea est un qualificatif latin appliqué par les explorateurs du XVIIIe siècle aux nouvelles espèces découvertes présentant des reflets bleutés.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cyanea_(m%C3%A9duse)</t>
+          <t>Cyanea_(méduse)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (14 décembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (14 décembre 2020) :
 Cyanea annasethe (Haeckel, 1880)
 Cyanea annaskala von Lendenfeld, 1882
 Cyanea barkeri Gershwin, Zeidler &amp; Davie, 2010
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cyanea_(m%C3%A9duse)</t>
+          <t>Cyanea_(méduse)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Particularités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cyanea capillata, la méduse à crinière de lion, l’une des plus grandes méduses au monde : son diamètre peut atteindre 2,50 m, et ses tentacules peuvent mesurer 40 m de long.</t>
         </is>
